--- a/fhir/ig/r2bo/0.1.1-ballot/StructureDefinition-r2bo-observacion-margen-quirurgico.xlsx
+++ b/fhir/ig/r2bo/0.1.1-ballot/StructureDefinition-r2bo-observacion-margen-quirurgico.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T16:54:01-03:00</t>
+    <t>2025-12-23T17:10:55-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/r2bo/0.1.1-ballot/StructureDefinition-r2bo-observacion-margen-quirurgico.xlsx
+++ b/fhir/ig/r2bo/0.1.1-ballot/StructureDefinition-r2bo-observacion-margen-quirurgico.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2692" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2691" uniqueCount="484">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-23T17:10:55-03:00</t>
+    <t>2026-01-07T10:16:22-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -881,10 +881,6 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t>Quantity
-CodeableConceptstringbooleaninteger</t>
-  </si>
-  <si>
     <t>Actual Resultado</t>
   </si>
   <si>
@@ -895,6 +891,9 @@
   </si>
   <si>
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
+  </si>
+  <si>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/r2bo/ValueSet/tipo-de-margen-quirurgica-mq-vs</t>
   </si>
   <si>
     <t xml:space="preserve">obs-7
@@ -4604,7 +4603,7 @@
         <v>82</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>96</v>
@@ -4616,19 +4615,19 @@
         <v>96</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>84</v>
@@ -4653,13 +4652,11 @@
         <v>84</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>84</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>84</v>
+        <v>278</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>84</v>
@@ -7636,13 +7633,13 @@
         <v>447</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>448</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>84</v>
@@ -8728,13 +8725,13 @@
         <v>447</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>448</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>84</v>
@@ -9818,13 +9815,13 @@
         <v>447</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>448</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>84</v>
